--- a/2019_DataInProgress/CHBP-InteractiveMapMaster_Tracking.xlsx
+++ b/2019_DataInProgress/CHBP-InteractiveMapMaster_Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamshaw/Documents/caphillblockparty/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamshaw/Documents/GitHub/react-chbp/2019_DataInProgress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{54FB0329-8CC5-5B4E-9D06-7D7F2676FF53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4388C28D-877C-8643-BD89-74B23C7D5D39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHBP - Interactive Map Master -" sheetId="1" r:id="rId1"/>
@@ -1052,7 +1052,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1189,7 +1189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1381,6 +1381,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1542,7 +1548,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1552,6 +1558,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1906,11 +1913,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1939,31 +1946,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2066,7 +2073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3712,7 +3719,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3752,7 +3759,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4048,7 +4055,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" s="2" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -4186,289 +4193,289 @@
         <v>287</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125">
+    <row r="125" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="5">
         <v>124</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126">
+    <row r="126" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="5">
         <v>125</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127">
+    <row r="127" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="5">
         <v>126</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128">
+    <row r="128" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="5">
         <v>127</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129">
+    <row r="129" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="5">
         <v>128</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130">
+    <row r="130" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="5">
         <v>129</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="5" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131">
+    <row r="131" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="5">
         <v>130</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132">
+    <row r="132" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="5">
         <v>131</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133">
+    <row r="133" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="5">
         <v>132</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134">
+    <row r="134" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="5">
         <v>133</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135">
+    <row r="135" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="5">
         <v>134</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136">
+    <row r="136" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="5">
         <v>135</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137">
+    <row r="137" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="5">
         <v>136</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138">
+    <row r="138" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="5">
         <v>137</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139">
+    <row r="139" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="5">
         <v>138</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140">
+    <row r="140" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="5">
         <v>139</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141">
+    <row r="141" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="5">
         <v>140</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142">
+    <row r="142" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="5">
         <v>141</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143">
+    <row r="143" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="5">
         <v>142</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144">
+    <row r="144" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="5">
         <v>143</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145">
+    <row r="145" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="5">
         <v>144</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146">
+    <row r="146" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="5">
         <v>145</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147">
+    <row r="147" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="5">
         <v>146</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148">
+    <row r="148" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="5">
         <v>147</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149">
+    <row r="149" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="5">
         <v>148</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150">
+    <row r="150" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="5">
         <v>149</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151">
+    <row r="151" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="5">
         <v>150</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152">
+    <row r="152" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="5">
         <v>151</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153">
+    <row r="153" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
         <v>152</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154">
+    <row r="154" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="5">
         <v>153</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155">
+    <row r="155" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="5">
         <v>154</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156">
+    <row r="156" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="5">
         <v>155</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157">
+    <row r="157" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="5">
         <v>156</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158">
+    <row r="158" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="5">
         <v>157</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="5" t="s">
         <v>335</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D124"/>
+  <autoFilter ref="D1:D124" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>